--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_1_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_1_square_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.42000000000007</v>
+        <v>22.36000000000006</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.446544657492061e-16</v>
+        <v>1.468063503636571e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>58.30949710518213</v>
+        <v>59.13781807298047</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[52.802411471077, 63.81658273928726]</t>
+          <t>[53.32382998192145, 64.9518061640395]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.603816069400194</v>
+        <v>1.553500271144503</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.503184472888809, 1.7044476659115793]</t>
+          <t>[1.4528686746331179, 1.654131867655888]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.4134719428024</v>
+        <v>53.69995897991726</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.66088835711394, 57.166055528490865]</t>
+          <t>[49.69833307010346, 57.70158488973105]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.69717717717723</v>
+        <v>16.83155155155159</v>
       </c>
       <c r="X2" t="n">
-        <v>16.33809809809815</v>
+        <v>16.47343343343347</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.05625625625631</v>
+        <v>17.18966966966971</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.82000000000044</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.446544657492061e-16</v>
+        <v>1.468063503636571e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>57.55362390124698</v>
+        <v>58.27344929720401</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[52.33519660548922, 62.772051197004735]</t>
+          <t>[53.1947896474457, 63.35210894696232]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.226474072814387</v>
+        <v>-2.289368820634003</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.3145267197618495, -2.1384214258669245]</t>
+          <t>[-2.377421467581465, -2.201316173686542]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>54.8882326279079</v>
+        <v>54.90486521619422</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[52.22160842982398, 57.55485682599181]</t>
+          <t>[52.29284618700027, 57.51688424538818]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>8.795075075075228</v>
+        <v>9.028948948949109</v>
       </c>
       <c r="X3" t="n">
-        <v>8.447247247247391</v>
+        <v>8.681681681681836</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.142902902903066</v>
+        <v>9.376216216216383</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_1_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_1_square_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.36000000000006</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.468063503636571e-16</v>
+        <v>1.460819769243627e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>59.13781807298047</v>
+        <v>58.13833713996493</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[53.32382998192145, 64.9518061640395]</t>
+          <t>[52.36141803210898, 63.915256247820885]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.553500271144503</v>
+        <v>1.603816069400194</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4528686746331179, 1.654131867655888]</t>
+          <t>[1.503184472888809, 1.7044476659115793]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.69995897991726</v>
+        <v>53.81431419346143</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.69833307010346, 57.70158488973105]</t>
+          <t>[49.87348304424394, 57.75514534267893]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.83155155155159</v>
+        <v>16.72696696696702</v>
       </c>
       <c r="X2" t="n">
-        <v>16.47343343343347</v>
+        <v>16.3672472472473</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.18966966966971</v>
+        <v>17.08668668668674</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.78000000000043</v>
+        <v>24.79000000000044</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.468063503636571e-16</v>
+        <v>1.460819769243627e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>58.27344929720401</v>
+        <v>59.47913735963228</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[53.1947896474457, 63.35210894696232]</t>
+          <t>[54.4705435195726, 64.48773119969196]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.289368820634003</v>
+        <v>-2.276789871070081</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.377421467581465, -2.201316173686542]</t>
+          <t>[-2.364842518017542, -2.1887372241226197]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>54.90486521619422</v>
+        <v>55.46792114562341</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[52.29284618700027, 57.51688424538818]</t>
+          <t>[52.91323171566457, 58.02261057558224]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>9.028948948949109</v>
+        <v>8.982962962963123</v>
       </c>
       <c r="X3" t="n">
-        <v>8.681681681681836</v>
+        <v>8.635555555555712</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.376216216216383</v>
+        <v>9.330370370370535</v>
       </c>
     </row>
   </sheetData>
